--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\A$\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporting_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594B977-877C-4EC2-B8F1-6088282566A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
@@ -524,36 +523,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375"/>
-    <col min="2" max="2" width="19.85546875"/>
-    <col min="3" max="3" width="15.5703125"/>
-    <col min="4" max="4" width="22.85546875"/>
-    <col min="5" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="14.6640625"/>
+    <col min="2" max="2" width="19.88671875"/>
+    <col min="3" max="3" width="15.5546875"/>
+    <col min="4" max="4" width="22.88671875"/>
+    <col min="5" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -572,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\reporting_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\M$\hefr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC47E8-3BD8-4C03-8A87-D51FF6C622A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="993"/>
+    <workbookView xWindow="31995" yWindow="795" windowWidth="21600" windowHeight="13185" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>{periode}</t>
   </si>
@@ -57,12 +58,18 @@
   </si>
   <si>
     <t>{auszahlungenPeriodeTitle}</t>
+  </si>
+  <si>
+    <t>{gemeindeTitle}</t>
+  </si>
+  <si>
+    <t>{gemeinde}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$CHF]\ #,##0.00;[Red]\-[$CHF]\ #,##0.00"/>
@@ -523,36 +530,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625"/>
-    <col min="2" max="2" width="19.88671875"/>
-    <col min="3" max="3" width="15.5546875"/>
-    <col min="4" max="4" width="22.88671875"/>
-    <col min="5" max="1025" width="8.5546875"/>
+    <col min="1" max="1" width="14.7109375"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875"/>
+    <col min="4" max="4" width="15.5703125"/>
+    <col min="5" max="5" width="22.85546875"/>
+    <col min="6" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,28 +569,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
+++ b/ebegu-server/src/main/resources/reporting/ZahlungAuftragPeriode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\M$\hefr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEC47E8-3BD8-4C03-8A87-D51FF6C622A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F2BAD-40FC-4187-B461-BF5C602739D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="795" windowWidth="21600" windowHeight="13185" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>{periode}</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>{gemeinde}</t>
+  </si>
+  <si>
+    <t>{betreuungsangebotTypTitle}</t>
+  </si>
+  <si>
+    <t>{betreuungsangebotTyp}</t>
   </si>
 </sst>
 </file>
@@ -531,37 +537,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875"/>
-    <col min="4" max="4" width="15.5703125"/>
-    <col min="5" max="5" width="22.85546875"/>
-    <col min="6" max="1026" width="8.5703125"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875"/>
+    <col min="5" max="5" width="15.5703125"/>
+    <col min="6" max="6" width="22.85546875"/>
+    <col min="7" max="1027" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -569,34 +579,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
